--- a/Listas de precios/minorista/MINI RODILLOS DISMAY.xlsx
+++ b/Listas de precios/minorista/MINI RODILLOS DISMAY.xlsx
@@ -717,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="1">

--- a/Listas de precios/minorista/MINI RODILLOS DISMAY.xlsx
+++ b/Listas de precios/minorista/MINI RODILLOS DISMAY.xlsx
@@ -717,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="1">

--- a/Listas de precios/minorista/MINI RODILLOS DISMAY.xlsx
+++ b/Listas de precios/minorista/MINI RODILLOS DISMAY.xlsx
@@ -717,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="1">
